--- a/data/prematurity April 2023/perinatal & stillbirths q1 2019_2023.xlsx
+++ b/data/prematurity April 2023/perinatal & stillbirths q1 2019_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\PDSR Q1 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB42DC-62A6-4EDE-A705-84744D146D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6181A1-2F04-4E20-AF34-B730DAFEE028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -97,18 +97,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +426,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -821,7 +820,7 @@
     <col min="16135" max="16135" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -838,311 +837,914 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>43466</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>403</v>
       </c>
       <c r="C2" s="2">
-        <v>8.4306095979247733</v>
+        <v>8.4681655810044134</v>
       </c>
       <c r="D2" s="2">
-        <v>4.8988555259934969</v>
+        <v>4.8749737339777264</v>
       </c>
       <c r="E2" s="2">
-        <v>4.687697960217915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+        <v>4.6648455557890314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>43497</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>312</v>
       </c>
       <c r="C3" s="2">
-        <v>7.2632461123009593</v>
+        <v>7.2912528335397635</v>
       </c>
       <c r="D3" s="2">
-        <v>5.427631578947369</v>
+        <v>5.3983314248323246</v>
       </c>
       <c r="E3" s="2">
-        <v>4.4642857142857144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+        <v>4.4401860204248562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>43525</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>324</v>
       </c>
       <c r="C4" s="2">
-        <v>6.5879099652304749</v>
+        <v>6.6219751471550028</v>
       </c>
       <c r="D4" s="2">
-        <v>4.7848855118595344</v>
+        <v>4.762099411379987</v>
       </c>
       <c r="E4" s="2">
-        <v>3.9223739603655403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+        <v>3.9036952256376716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B5">
+        <v>343</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.2461834355090762</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.2267099410986901</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.7121048202909002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B6">
+        <v>324</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.3709296838131193</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.716375648890986</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.6938807613654241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B7">
+        <v>314</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.3986306115379126</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.5034947934709519</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.1585596967782692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B8">
+        <v>401</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.9896393703925082</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.2163777644949194</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.0645546921697555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B9">
+        <v>379</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.4844978079702988</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.0949879537106515</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.0483431415142777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B10">
+        <v>376</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.4802053077627031</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.6499423069271479</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.1777742410376799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B11">
+        <v>510</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.398613518197575</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.4856764196146397</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.4865939443368337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B12">
+        <v>402</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.0033594624860012</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.0089585666293388</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.964165733482643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B13">
+        <v>366</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.0718082173654153</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.4032595990560841</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.374280484308493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
         <v>43831</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B14" s="3">
         <v>908</v>
       </c>
-      <c r="C5" s="2">
-        <v>18.900915903413821</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.9984248661136199</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4.3053659561062689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="1">
+      <c r="C14" s="2">
+        <v>18.974776920987193</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.9735648757653648</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.2839529392096631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
         <v>43862</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B15" s="3">
         <v>815</v>
       </c>
-      <c r="C6" s="2">
-        <v>18.760214533987064</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5.5114997325643582</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4.0696727983070158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
+      <c r="C15" s="2">
+        <v>18.84916046070586</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5.481289606364772</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.0473657430963508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
         <v>43891</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B16" s="3">
         <v>765</v>
       </c>
-      <c r="C7" s="2">
-        <v>15.896434211619983</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5.0202701283424709</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.6969353246371335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
+      <c r="C16" s="2">
+        <v>15.988797391631483</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.9951929105881367</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3.6784684195126029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B17" s="3">
+        <v>935</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20.039006408195633</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.6795044900233602</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.8792087271480313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B18" s="3">
+        <v>692</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14.919902546301287</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.1827472456393782</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.7381902071969124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B19" s="3">
+        <v>675</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14.838426027698397</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.9681248626071666</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3.143548032534623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="3">
+        <v>934</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19.828043732087892</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.8145632098503341</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.9910837490712239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B21" s="3">
+        <v>817</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16.232540581351454</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5.2452762710854151</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.7551409667997855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B22" s="3">
+        <v>945</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18.546503640609973</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.7307714952995896</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3.8074303770141111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B23" s="3">
+        <v>734</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15.423084196591793</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.7277846651677846</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.3199554537622658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B24" s="3">
+        <v>691</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15.890902400883082</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.1854475209272373</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.7715021617146536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B25" s="3">
+        <v>683</v>
+      </c>
+      <c r="C25" s="2">
+        <v>14.24697538589904</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.2357113057989153</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.9203170629954109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" s="1">
         <v>44197</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B26" s="3">
         <v>739</v>
       </c>
-      <c r="C8" s="2">
-        <v>15.421214081509151</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.2711478451547604</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.9518427932866662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
+      <c r="C26" s="2">
+        <v>15.499811233692689</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5.2435085364318974</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.9363647804018624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" s="1">
         <v>44228</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B27" s="3">
         <v>800</v>
       </c>
-      <c r="C9" s="2">
-        <v>19.67342120794806</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6.143972936669817</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3.930152728719964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
+      <c r="C27" s="2">
+        <v>19.777992039358207</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.106455042151846</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.9061534277732455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" s="1">
         <v>44256</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B28" s="3">
         <v>903</v>
       </c>
-      <c r="C10" s="2">
-        <v>18.713086726764065</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5.9401798786864672</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.9322317506797742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
+      <c r="C28" s="2">
+        <v>18.775730860398387</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5.9051025075893042</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.9090115191084127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B29" s="3">
+        <v>640</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13.76492095924293</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.5811377567480376</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.7744918808474028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B30" s="3">
+        <v>600</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12.482576403769739</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.9528158611937503</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.3716895167162502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B31" s="3">
+        <v>702</v>
+      </c>
+      <c r="C31" s="2">
+        <v>15.736734739626533</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.2368131991302196</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.1832141496110649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A32" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B32" s="3">
+        <v>630</v>
+      </c>
+      <c r="C32" s="2">
+        <v>13.494120418960311</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4.3266862295714006</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.7630818000728254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A33" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B33" s="3">
+        <v>671</v>
+      </c>
+      <c r="C33" s="2">
+        <v>13.158926890492625</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4.33401317853781</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3.1573580169438342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A34" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B34" s="3">
+        <v>822</v>
+      </c>
+      <c r="C34" s="2">
+        <v>15.958066394874782</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4.7369442826635613</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3.9409823335274705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A35" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B35" s="3">
+        <v>623</v>
+      </c>
+      <c r="C35" s="2">
+        <v>13.094837733310914</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.8464772154027238</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.8165461577265849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A36" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B36" s="3">
+        <v>722</v>
+      </c>
+      <c r="C36" s="2">
+        <v>15.612836259839113</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4.7357495026381802</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3.7842747167200068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A37" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B37" s="3">
+        <v>776</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15.939528387149782</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4.4367759428148883</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.5946101388546547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A38" s="1">
         <v>44562</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B38" s="4">
         <v>589</v>
       </c>
-      <c r="C11" s="2">
-        <v>11.956477609516464</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4.5997782249784382</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.2588196640519116</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12" s="1">
+      <c r="C38" s="2">
+        <v>12.034407371840713</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4.5767525488833956</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.2475124123980956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A39" s="1">
         <v>44593</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B39" s="4">
         <v>559</v>
       </c>
-      <c r="C12" s="2">
-        <v>12.776850814838518</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.9477329393295784</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.8165112198725644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A13" s="1">
+      <c r="C39" s="2">
+        <v>12.885528560232354</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3.9417269835415611</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.8122262689594764</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A40" s="1">
         <v>44621</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B40" s="4">
         <v>730</v>
       </c>
-      <c r="C13" s="2">
-        <v>15.443852077515444</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5.1597156803973618</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3.4469469898090264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A14" s="1">
+      <c r="C40" s="2">
+        <v>15.699599982794957</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5.1830186244569658</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3.4625145167534086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A41" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B41" s="4">
+        <v>563</v>
+      </c>
+      <c r="C41" s="2">
+        <v>12.54400427788423</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3.8099906421282475</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.1612227619090061</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A42" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B42">
+        <v>545</v>
+      </c>
+      <c r="C42" s="2">
+        <v>11.338812025382296</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3.578487464891293</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.9972953292416518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A43" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B43">
+        <v>726</v>
+      </c>
+      <c r="C43" s="2">
+        <v>15.075063850993585</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5.004256732905584</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3.4469154259847588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A44" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B44">
+        <v>731</v>
+      </c>
+      <c r="C44" s="2">
+        <v>14.920194309507288</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4.8985590072253746</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3.2657060048169164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A45" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B45">
+        <v>761</v>
+      </c>
+      <c r="C45" s="2">
+        <v>15.118404322949779</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4.5692943420216148</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3.0991735537190084</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A46" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B46">
+        <v>575</v>
+      </c>
+      <c r="C46" s="2">
+        <v>11.968943194354821</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3.7051685019046232</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.7476530463562376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A47" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B47">
+        <v>459</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9.6927462781121321</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2.5129342202512932</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.1117094287825995</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A48" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B48">
+        <v>668</v>
+      </c>
+      <c r="C48" s="2">
+        <v>13.863235446715782</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3.3791583586945113</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3.2112498688214925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A49" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B49">
+        <v>829</v>
+      </c>
+      <c r="C49" s="2">
+        <v>17.15148756568875</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5.4401272152825726</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3.7453183520599249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A50" s="1">
         <v>44927</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B50">
         <v>676</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C50" s="2">
         <v>21.479410269445854</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D50" s="2">
         <v>6.5913672287460399</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E50" s="2">
         <v>4.15960067833488</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="1">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A51" s="1">
         <v>44958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B51">
         <v>919</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C51" s="2">
         <v>32.13005856131457</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D51" s="2">
         <v>9.7307361284316656</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E51" s="2">
         <v>7.4473503943231512</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="1">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A52" s="1">
         <v>44986</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B52">
         <v>684</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C52" s="2">
         <v>24.003368893879841</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D52" s="2">
         <v>6.9245716304539835</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E52" s="2">
         <v>4.9461225931814168</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A31" s="3"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/prematurity April 2023/perinatal & stillbirths q1 2019_2023.xlsx
+++ b/data/prematurity April 2023/perinatal & stillbirths q1 2019_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\PDSR Q1 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\R project doc_E4H\E4H-Zambia\data\prematurity April 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6181A1-2F04-4E20-AF34-B730DAFEE028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1E87A-44D9-4FBA-909E-0D30F47D9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -1667,10 +1667,10 @@
         <v>21.479410269445854</v>
       </c>
       <c r="D50" s="2">
-        <v>6.5913672287460399</v>
+        <v>4.3589580820584439</v>
       </c>
       <c r="E50" s="2">
-        <v>4.15960067833488</v>
+        <v>2.7507987896485324</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.5">
@@ -1684,10 +1684,10 @@
         <v>32.13005856131457</v>
       </c>
       <c r="D51" s="2">
-        <v>9.7307361284316656</v>
+        <v>6.2729290275827712</v>
       </c>
       <c r="E51" s="2">
-        <v>7.4473503943231512</v>
+        <v>4.8009420716517957</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.5">
@@ -1701,10 +1701,10 @@
         <v>24.003368893879841</v>
       </c>
       <c r="D52" s="2">
-        <v>6.9245716304539835</v>
+        <v>3.7361799466260006</v>
       </c>
       <c r="E52" s="2">
-        <v>4.9461225931814168</v>
+        <v>2.6686999618757148</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">

--- a/data/prematurity April 2023/perinatal & stillbirths q1 2019_2023.xlsx
+++ b/data/prematurity April 2023/perinatal & stillbirths q1 2019_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\R project doc_E4H\E4H-Zambia\data\prematurity April 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\prematurity April 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1E87A-44D9-4FBA-909E-0D30F47D9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2998912-B6CF-452A-8BAD-3DCDB4FF7AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,10 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -1664,13 +1667,13 @@
         <v>676</v>
       </c>
       <c r="C50" s="2">
-        <v>21.479410269445854</v>
+        <v>13.682548678298183</v>
       </c>
       <c r="D50" s="2">
-        <v>4.3589580820584439</v>
+        <v>4.2057982850142919</v>
       </c>
       <c r="E50" s="2">
-        <v>2.7507987896485324</v>
+        <v>2.6541445487954269</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.5">
@@ -1681,13 +1684,13 @@
         <v>919</v>
       </c>
       <c r="C51" s="2">
-        <v>32.13005856131457</v>
+        <v>20.222469165685617</v>
       </c>
       <c r="D51" s="2">
-        <v>6.2729290275827712</v>
+        <v>6.1420430608217478</v>
       </c>
       <c r="E51" s="2">
-        <v>4.8009420716517957</v>
+        <v>4.7007694183906512</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.5">
@@ -1698,23 +1701,65 @@
         <v>684</v>
       </c>
       <c r="C52" s="2">
-        <v>24.003368893879841</v>
+        <v>12.636479521143935</v>
       </c>
       <c r="D52" s="2">
-        <v>3.7361799466260006</v>
+        <v>3.6581496481830569</v>
       </c>
       <c r="E52" s="2">
-        <v>2.6686999618757148</v>
+        <v>2.6129640344164691</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B53">
+        <v>682</v>
+      </c>
+      <c r="C53" s="2">
+        <v>13.773325793682849</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.716114411710663</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.8378350789081481</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B54">
+        <v>749</v>
+      </c>
+      <c r="C54" s="2">
+        <v>14.529019242706394</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.1532795235483118</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3.1149596426612334</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B55">
+        <v>568</v>
+      </c>
+      <c r="C55" s="2">
+        <v>11.788390096091982</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3.8815803277312688</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1.9722624367931851</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
